--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -423,15 +423,6 @@
   </si>
   <si>
     <t>serie</t>
-  </si>
-  <si>
-    <t>Atto riconoscimento paterno</t>
-  </si>
-  <si>
-    <t>evento.riconoscimentoPadre</t>
-  </si>
-  <si>
-    <t>evento.riconoscimentoPadre.atto</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -513,7 +504,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -521,34 +512,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2916,19 +2908,19 @@
         <v>137</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120">
@@ -2936,19 +2928,19 @@
         <v>137</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="121">
@@ -2956,19 +2948,19 @@
         <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="122">
@@ -2976,19 +2968,19 @@
         <v>137</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="123">
@@ -2996,16 +2988,16 @@
         <v>137</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -3016,19 +3008,19 @@
         <v>137</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="125">
@@ -3036,16 +3028,16 @@
         <v>137</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3056,19 +3048,19 @@
         <v>137</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="127">
@@ -3076,16 +3068,16 @@
         <v>137</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>9</v>
@@ -3096,19 +3088,19 @@
         <v>137</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="129">
@@ -3116,16 +3108,16 @@
         <v>137</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>9</v>
@@ -3136,19 +3128,19 @@
         <v>137</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="131">
@@ -3156,199 +3148,199 @@
         <v>137</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141">
@@ -3356,19 +3348,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
@@ -3376,19 +3368,19 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
@@ -3396,19 +3388,19 @@
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
@@ -3416,16 +3408,16 @@
         <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>9</v>
@@ -3436,551 +3428,22 @@
         <v>140</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F158" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F432E5CA-9287-4B00-8D9E-E190010AB9CA}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CCF705-EE30-4691-84BB-6DA46159755D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0C46A59-3B30-449E-934A-45C6B7799F70}"/>
 </file>
--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -62,7 +62,7 @@
     <t>SI</t>
   </si>
   <si>
-    <t>19</t>
+    <t>19.3</t>
   </si>
   <si>
     <t>32.1</t>
@@ -275,7 +275,7 @@
     <t>evento.madre</t>
   </si>
   <si>
-    <t>19,43</t>
+    <t>19.3,43</t>
   </si>
   <si>
     <t>Padre</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -432,6 +447,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -529,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -541,6 +559,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -562,285 +581,330 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -862,2585 +926,2975 @@
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,73 +32,76 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Atto di pre-riconoscimento</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>32.1</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Atto di pre-riconoscimento</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>19.3</t>
-  </si>
-  <si>
-    <t>32.1</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -927,2974 +930,2974 @@
         <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="G118" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,24 +47,27 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -452,7 +455,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -550,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -562,7 +565,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -682,13 +685,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -705,13 +708,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -728,13 +731,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -751,13 +754,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -774,13 +777,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -797,7 +800,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -820,7 +823,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -843,7 +846,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -866,7 +869,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -889,7 +892,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -911,2993 +914,3016 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="G118" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F137" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F142" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="C146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>34</v>
+      <c r="E146" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -218,6 +218,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -425,25 +431,25 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>32.1,43</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>32.1,43</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -553,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1605,22 +1611,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>35</v>
@@ -1628,22 +1634,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>35</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1680,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1703,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1726,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1766,22 +1772,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>35</v>
@@ -1789,22 +1795,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>35</v>
@@ -1812,22 +1818,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>35</v>
@@ -1835,22 +1841,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>35</v>
@@ -1858,22 +1864,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>35</v>
@@ -1881,19 +1887,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1910,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1933,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1950,22 +1956,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>35</v>
@@ -1973,19 +1979,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2002,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>21</v>
@@ -2019,22 +2025,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>35</v>
@@ -2042,22 +2048,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>35</v>
@@ -2065,22 +2071,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>35</v>
@@ -2088,19 +2094,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2111,22 +2117,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>35</v>
@@ -2134,19 +2140,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2157,22 +2163,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>35</v>
@@ -2180,19 +2186,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2209,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2226,19 +2232,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2255,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2301,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2324,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2347,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2370,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2387,19 +2393,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2416,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2439,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2462,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2502,19 +2508,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2525,19 +2531,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2548,19 +2554,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2571,19 +2577,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2594,19 +2600,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2620,16 +2626,16 @@
         <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2643,7 +2649,7 @@
         <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>20</v>
@@ -2652,7 +2658,7 @@
         <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2666,16 +2672,16 @@
         <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2686,10 +2692,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2698,7 +2704,7 @@
         <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2709,19 +2715,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2732,19 +2738,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2755,16 +2761,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>105</v>
@@ -2778,10 +2784,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>20</v>
@@ -2790,7 +2796,7 @@
         <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2801,19 +2807,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2824,19 +2830,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2847,19 +2853,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2870,19 +2876,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2893,19 +2899,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2916,19 +2922,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2939,10 +2945,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2951,7 +2957,7 @@
         <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2962,10 +2968,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2974,7 +2980,7 @@
         <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2985,10 +2991,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2997,7 +3003,7 @@
         <v>100</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3008,19 +3014,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3031,19 +3037,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3054,19 +3060,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3077,19 +3083,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3106,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3123,19 +3129,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3152,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3169,19 +3175,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3192,19 +3198,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3215,19 +3221,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3238,19 +3244,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3261,22 +3267,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>35</v>
@@ -3284,22 +3290,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>35</v>
@@ -3307,622 +3313,714 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C122" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="G142" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
+      <c r="C150" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -461,7 +461,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -571,7 +574,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3891,7 +3894,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>20</v>
@@ -3911,19 +3914,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3934,19 +3937,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>25</v>
@@ -3957,10 +3960,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>20</v>
@@ -3969,7 +3972,7 @@
         <v>33</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3980,10 +3983,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>20</v>
@@ -3992,7 +3995,7 @@
         <v>102</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4003,19 +4006,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -462,9 +462,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3894,7 +3891,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>20</v>
@@ -3914,19 +3911,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="C146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="E146" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3937,19 +3934,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>25</v>
@@ -3960,10 +3957,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>20</v>
@@ -3972,7 +3969,7 @@
         <v>33</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3983,10 +3980,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>20</v>
@@ -3995,7 +3992,7 @@
         <v>102</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4006,19 +4003,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3891,7 +3894,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>20</v>
@@ -3911,19 +3914,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3934,19 +3937,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>25</v>
@@ -3957,10 +3960,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>20</v>
@@ -3969,7 +3972,7 @@
         <v>33</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3980,10 +3983,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>20</v>
@@ -3992,7 +3995,7 @@
         <v>102</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4003,19 +4006,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -303,6 +303,36 @@
   </si>
   <si>
     <t>19.3,43</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -562,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -572,7 +602,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2166,22 +2196,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>35</v>
@@ -2189,22 +2219,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>35</v>
@@ -2212,19 +2242,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2235,22 +2265,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>35</v>
@@ -2258,22 +2288,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>35</v>
@@ -2281,22 +2311,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>35</v>
@@ -2304,19 +2334,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2357,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2380,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2403,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2426,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2449,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2472,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2495,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2518,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2541,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2564,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2587,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2610,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2633,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2656,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2679,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2702,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2725,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2718,19 +2748,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2741,19 +2771,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2764,19 +2794,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2787,19 +2817,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2810,19 +2840,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2833,19 +2863,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2856,19 +2886,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2879,19 +2909,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2902,19 +2932,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2925,19 +2955,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2948,19 +2978,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2971,19 +3001,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2994,19 +3024,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3017,19 +3047,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3040,19 +3070,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3063,16 +3093,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>117</v>
@@ -3086,19 +3116,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3109,19 +3139,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3132,19 +3162,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3155,19 +3185,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3178,19 +3208,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3201,19 +3231,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3224,19 +3254,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3247,19 +3277,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3270,19 +3300,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3293,19 +3323,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3316,22 +3346,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>35</v>
@@ -3339,22 +3369,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>35</v>
@@ -3362,19 +3392,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3385,645 +3415,967 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="C160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
+      <c r="E160" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -3283,7 +3283,7 @@
         <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>112</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -170,6 +170,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -224,13 +230,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -592,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1667,22 +1673,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>35</v>
@@ -1690,22 +1696,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>35</v>
@@ -1713,19 +1719,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1742,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1828,22 +1834,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>35</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>21</v>
@@ -1897,22 +1903,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>35</v>
@@ -1920,22 +1926,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -1943,22 +1949,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>35</v>
@@ -1966,19 +1972,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1989,19 +1995,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2035,22 +2041,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>35</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
@@ -2104,22 +2110,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>35</v>
@@ -2127,22 +2133,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>35</v>
@@ -2150,22 +2156,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>35</v>
@@ -2173,19 +2179,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2219,22 +2225,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>35</v>
@@ -2242,19 +2248,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2271,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>21</v>
@@ -2288,22 +2294,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>35</v>
@@ -2311,22 +2317,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>35</v>
@@ -2334,22 +2340,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>35</v>
@@ -2357,22 +2363,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>35</v>
@@ -2380,19 +2386,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2403,19 +2409,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2432,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2455,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2501,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2524,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2547,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2564,19 +2570,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2587,19 +2593,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2616,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2662,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2685,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2708,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2725,19 +2731,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2754,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2777,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2800,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2823,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2840,19 +2846,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2869,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2886,19 +2892,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2909,19 +2915,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2932,19 +2938,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2958,7 +2964,7 @@
         <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2967,7 +2973,7 @@
         <v>110</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2981,16 +2987,16 @@
         <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3004,16 +3010,16 @@
         <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3024,10 +3030,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3036,7 +3042,7 @@
         <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3053,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3076,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3093,16 +3099,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>117</v>
@@ -3116,19 +3122,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3145,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3162,19 +3168,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3185,19 +3191,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3208,19 +3214,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3231,19 +3237,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3254,19 +3260,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3277,19 +3283,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3300,19 +3306,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3323,19 +3329,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3346,19 +3352,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3369,19 +3375,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3392,10 +3398,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3404,7 +3410,7 @@
         <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3415,10 +3421,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3427,7 +3433,7 @@
         <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3438,19 +3444,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3461,19 +3467,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3484,19 +3490,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3507,19 +3513,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3530,19 +3536,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3553,19 +3559,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3576,19 +3582,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3599,19 +3605,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3622,19 +3628,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3645,19 +3651,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3668,22 +3674,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>35</v>
@@ -3691,22 +3697,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>35</v>
@@ -3714,19 +3720,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3737,645 +3743,760 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C140" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B164" s="2" t="s">
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="C168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -598,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1696,22 +1702,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>35</v>
@@ -1719,22 +1725,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>35</v>
@@ -1742,19 +1748,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1771,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1794,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1863,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1880,22 +1886,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>35</v>
@@ -1903,22 +1909,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>35</v>
@@ -1926,22 +1932,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -1949,19 +1955,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>21</v>
@@ -1972,22 +1978,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>35</v>
@@ -1995,19 +2001,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2024,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2041,22 +2047,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>35</v>
@@ -2064,19 +2070,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2093,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
@@ -2110,19 +2116,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2139,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>21</v>
@@ -2156,22 +2162,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>35</v>
@@ -2179,22 +2185,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>35</v>
@@ -2202,22 +2208,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>35</v>
@@ -2225,19 +2231,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2254,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2271,22 +2277,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>35</v>
@@ -2294,19 +2300,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2323,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>21</v>
@@ -2340,22 +2346,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>35</v>
@@ -2363,22 +2369,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>35</v>
@@ -2386,22 +2392,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>35</v>
@@ -2409,22 +2415,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>35</v>
@@ -2432,19 +2438,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2461,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2484,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2507,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2530,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2553,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2576,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2593,22 +2599,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>35</v>
@@ -2616,19 +2622,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2639,22 +2645,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>35</v>
@@ -2662,22 +2668,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>35</v>
@@ -2685,19 +2691,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2714,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2731,22 +2737,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>35</v>
@@ -2754,19 +2760,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2777,22 +2783,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>35</v>
@@ -2800,19 +2806,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2823,22 +2829,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2846,19 +2852,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2869,22 +2875,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2892,22 +2898,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>35</v>
@@ -2915,19 +2921,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2944,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2967,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2984,19 +2990,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3007,22 +3013,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>35</v>
@@ -3033,7 +3039,7 @@
         <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3042,7 +3048,7 @@
         <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3056,19 +3062,19 @@
         <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>35</v>
@@ -3079,19 +3085,19 @@
         <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>35</v>
@@ -3099,10 +3105,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3111,7 +3117,7 @@
         <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3122,19 +3128,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3145,19 +3151,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3174,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3197,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3214,10 +3220,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>20</v>
@@ -3226,7 +3232,7 @@
         <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3237,19 +3243,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3260,19 +3266,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3283,19 +3289,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3306,19 +3312,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3329,19 +3335,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3352,19 +3358,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3375,19 +3381,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3398,19 +3404,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3421,19 +3427,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3444,19 +3450,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3467,19 +3473,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3490,10 +3496,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3502,7 +3508,7 @@
         <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3513,10 +3519,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3525,7 +3531,7 @@
         <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3536,19 +3542,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3559,19 +3565,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3582,19 +3588,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3605,19 +3611,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3628,19 +3634,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3651,19 +3657,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3674,19 +3680,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3697,19 +3703,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3720,19 +3726,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3743,19 +3749,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3766,22 +3772,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>35</v>
@@ -3789,22 +3795,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>35</v>
@@ -3812,19 +3818,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3835,668 +3841,760 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G164" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="C172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
+      <c r="C173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -604,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1725,22 +1731,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>35</v>
@@ -1748,22 +1754,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>35</v>
@@ -1771,19 +1777,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1800,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1823,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1846,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1869,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1892,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1909,22 +1915,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>35</v>
@@ -1932,22 +1938,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -1955,22 +1961,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>35</v>
@@ -1978,19 +1984,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>21</v>
@@ -2001,22 +2007,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>35</v>
@@ -2024,19 +2030,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2047,22 +2053,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>35</v>
@@ -2070,22 +2076,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>35</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
@@ -2116,19 +2122,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2145,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>21</v>
@@ -2162,19 +2168,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2185,19 +2191,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>21</v>
@@ -2208,22 +2214,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>35</v>
@@ -2231,22 +2237,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>35</v>
@@ -2254,22 +2260,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>35</v>
@@ -2277,19 +2283,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2306,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2323,22 +2329,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>35</v>
@@ -2346,19 +2352,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2375,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>21</v>
@@ -2392,22 +2398,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>35</v>
@@ -2415,22 +2421,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>35</v>
@@ -2438,22 +2444,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>35</v>
@@ -2461,22 +2467,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>35</v>
@@ -2484,19 +2490,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2513,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2530,19 +2536,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2553,19 +2559,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2582,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2599,22 +2605,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>35</v>
@@ -2622,19 +2628,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2645,19 +2651,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>23</v>
@@ -2668,22 +2674,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>35</v>
@@ -2691,22 +2697,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>35</v>
@@ -2714,22 +2720,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>35</v>
@@ -2737,22 +2743,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>35</v>
@@ -2760,19 +2766,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2783,19 +2789,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>23</v>
@@ -2806,22 +2812,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>35</v>
@@ -2829,22 +2835,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2852,22 +2858,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>35</v>
@@ -2875,22 +2881,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2898,19 +2904,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>23</v>
@@ -2921,19 +2927,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2944,22 +2950,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>35</v>
@@ -2967,22 +2973,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>35</v>
@@ -2990,19 +2996,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3013,22 +3019,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>35</v>
@@ -3036,19 +3042,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3059,22 +3065,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>35</v>
@@ -3082,19 +3088,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>23</v>
@@ -3108,7 +3114,7 @@
         <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3117,7 +3123,7 @@
         <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3131,19 +3137,19 @@
         <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>35</v>
@@ -3154,19 +3160,19 @@
         <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>35</v>
@@ -3174,10 +3180,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3186,7 +3192,7 @@
         <v>116</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3203,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3220,19 +3226,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3243,19 +3249,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3266,19 +3272,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3289,10 +3295,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>20</v>
@@ -3301,7 +3307,7 @@
         <v>116</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3312,19 +3318,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3335,19 +3341,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3358,19 +3364,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3381,19 +3387,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3404,19 +3410,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3427,19 +3433,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3450,19 +3456,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3473,19 +3479,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3496,19 +3502,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3519,19 +3525,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3542,19 +3548,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3565,10 +3571,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3577,7 +3583,7 @@
         <v>116</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3588,10 +3594,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3600,7 +3606,7 @@
         <v>116</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3611,19 +3617,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3634,19 +3640,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3657,19 +3663,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3680,19 +3686,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3703,19 +3709,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3726,19 +3732,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3749,19 +3755,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3772,19 +3778,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3795,19 +3801,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3818,19 +3824,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3841,22 +3847,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>35</v>
@@ -3864,22 +3870,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>35</v>
@@ -3887,19 +3893,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3910,691 +3916,783 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G168" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D173" s="2" t="s">
+      <c r="C176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
+      <c r="C177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="212">
   <si>
     <t>Sezione</t>
   </si>
@@ -140,6 +140,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dati generali</t>
   </si>
   <si>
@@ -224,9 +314,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -314,6 +401,15 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -368,9 +464,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -512,9 +605,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -552,6 +642,12 @@
   </si>
   <si>
     <t>tipoConsenso</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -610,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1116,312 +1212,312 @@
         <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1432,19 +1528,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1455,19 +1551,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1478,19 +1574,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1501,19 +1597,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1524,19 +1620,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1547,19 +1643,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1570,19 +1666,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1593,19 +1689,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1616,19 +1712,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1735,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1758,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1781,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1804,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1827,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1754,22 +1850,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>35</v>
@@ -1777,19 +1873,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1896,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1919,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1942,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1965,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1988,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1915,19 +2011,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1938,22 +2034,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -1961,19 +2057,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1984,22 +2080,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>35</v>
@@ -2007,22 +2103,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>35</v>
@@ -2030,19 +2126,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2053,306 +2149,306 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>103</v>
@@ -2361,7 +2457,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>104</v>
@@ -2370,12 +2466,12 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>105</v>
@@ -2384,21 +2480,21 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>107</v>
@@ -2407,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>108</v>
@@ -2416,12 +2512,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>109</v>
@@ -2430,21 +2526,21 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>111</v>
@@ -2453,220 +2549,220 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>35</v>
@@ -2674,19 +2770,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2697,22 +2793,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>35</v>
@@ -2720,22 +2816,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>35</v>
@@ -2743,19 +2839,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2862,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2789,22 +2885,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>35</v>
@@ -2812,22 +2908,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>35</v>
@@ -2835,22 +2931,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2858,22 +2954,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>35</v>
@@ -2881,22 +2977,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2904,22 +3000,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>35</v>
@@ -2927,19 +3023,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2950,22 +3046,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>35</v>
@@ -2973,22 +3069,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>35</v>
@@ -2996,22 +3092,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>35</v>
@@ -3019,19 +3115,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3042,22 +3138,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>35</v>
@@ -3065,19 +3161,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3088,22 +3184,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>35</v>
@@ -3111,19 +3207,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3134,22 +3230,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>35</v>
@@ -3157,22 +3253,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>35</v>
@@ -3180,19 +3276,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3203,19 +3299,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3322,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3345,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3272,22 +3368,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>35</v>
@@ -3295,19 +3391,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3318,22 +3414,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>35</v>
@@ -3341,22 +3437,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>35</v>
@@ -3364,22 +3460,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>35</v>
@@ -3387,19 +3483,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3410,19 +3506,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3433,19 +3529,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3456,19 +3552,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3479,19 +3575,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3502,19 +3598,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3525,19 +3621,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3548,22 +3644,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>35</v>
@@ -3571,19 +3667,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3594,22 +3690,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>35</v>
@@ -3617,22 +3713,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>35</v>
@@ -3640,19 +3736,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3663,19 +3759,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3686,22 +3782,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>35</v>
@@ -3709,22 +3805,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>35</v>
@@ -3732,19 +3828,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3755,22 +3851,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>35</v>
@@ -3778,19 +3874,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3801,22 +3897,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>35</v>
@@ -3824,19 +3920,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3847,22 +3943,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>35</v>
@@ -3870,22 +3966,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>35</v>
@@ -3893,19 +3989,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3916,22 +4012,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>35</v>
@@ -3939,22 +4035,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>35</v>
@@ -3962,19 +4058,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3985,617 +4081,617 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="E173" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4606,22 +4702,22 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="F174" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>35</v>
@@ -4629,19 +4725,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4652,19 +4748,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4675,24 +4771,944 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="C178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="212">
   <si>
     <t>Sezione</t>
   </si>
@@ -706,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2474,7 +2474,7 @@
         <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2483,7 +2483,7 @@
         <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2497,7 +2497,7 @@
         <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2506,7 +2506,7 @@
         <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2520,7 +2520,7 @@
         <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2529,7 +2529,7 @@
         <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2543,7 +2543,7 @@
         <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2552,7 +2552,7 @@
         <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2566,7 +2566,7 @@
         <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2575,7 +2575,7 @@
         <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2589,7 +2589,7 @@
         <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2598,7 +2598,7 @@
         <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2612,7 +2612,7 @@
         <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2621,7 +2621,7 @@
         <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2635,7 +2635,7 @@
         <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2644,7 +2644,7 @@
         <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2658,7 +2658,7 @@
         <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2667,7 +2667,7 @@
         <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2681,7 +2681,7 @@
         <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2690,7 +2690,7 @@
         <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2704,7 +2704,7 @@
         <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2713,7 +2713,7 @@
         <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2724,25 +2724,25 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
@@ -2750,19 +2750,19 @@
         <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>35</v>
@@ -2773,16 +2773,16 @@
         <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2796,16 +2796,16 @@
         <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2819,7 +2819,7 @@
         <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>20</v>
@@ -2828,7 +2828,7 @@
         <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2842,7 +2842,7 @@
         <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>20</v>
@@ -2851,7 +2851,7 @@
         <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2865,7 +2865,7 @@
         <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>20</v>
@@ -2874,7 +2874,7 @@
         <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2888,16 +2888,16 @@
         <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2911,7 +2911,7 @@
         <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2920,10 +2920,10 @@
         <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>35</v>
@@ -2934,7 +2934,7 @@
         <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2943,10 +2943,10 @@
         <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2957,7 +2957,7 @@
         <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2966,10 +2966,10 @@
         <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>35</v>
@@ -2980,7 +2980,7 @@
         <v>132</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2989,7 +2989,7 @@
         <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>21</v>
@@ -3003,19 +3003,19 @@
         <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>35</v>
@@ -3026,7 +3026,7 @@
         <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>20</v>
@@ -3035,7 +3035,7 @@
         <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3049,19 @@
         <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>35</v>
@@ -3072,7 +3072,7 @@
         <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3081,7 +3081,7 @@
         <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
@@ -3095,7 +3095,7 @@
         <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3104,10 +3104,10 @@
         <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>35</v>
@@ -3118,7 +3118,7 @@
         <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3127,10 +3127,10 @@
         <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>35</v>
@@ -3141,7 +3141,7 @@
         <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3150,10 +3150,10 @@
         <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>35</v>
@@ -3164,7 +3164,7 @@
         <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3173,10 +3173,10 @@
         <v>133</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>35</v>
@@ -3187,7 +3187,7 @@
         <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3196,10 +3196,10 @@
         <v>133</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>35</v>
@@ -3210,7 +3210,7 @@
         <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3219,10 +3219,10 @@
         <v>133</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>35</v>
@@ -3233,7 +3233,7 @@
         <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3242,7 +3242,7 @@
         <v>133</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>21</v>
@@ -3256,19 +3256,19 @@
         <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>35</v>
@@ -3279,7 +3279,7 @@
         <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
@@ -3288,7 +3288,7 @@
         <v>133</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3302,7 +3302,7 @@
         <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>20</v>
@@ -3311,7 +3311,7 @@
         <v>133</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3325,16 +3325,16 @@
         <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3348,7 +3348,7 @@
         <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3357,10 +3357,10 @@
         <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>35</v>
@@ -3371,7 +3371,7 @@
         <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3380,10 +3380,10 @@
         <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>35</v>
@@ -3394,7 +3394,7 @@
         <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3403,10 +3403,10 @@
         <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>35</v>
@@ -3417,7 +3417,7 @@
         <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3426,7 +3426,7 @@
         <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>21</v>
@@ -3437,22 +3437,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>35</v>
@@ -3463,19 +3463,19 @@
         <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>35</v>
@@ -3486,16 +3486,16 @@
         <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3509,16 +3509,16 @@
         <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3532,7 +3532,7 @@
         <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>20</v>
@@ -3541,7 +3541,7 @@
         <v>146</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3555,7 +3555,7 @@
         <v>145</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>20</v>
@@ -3564,7 +3564,7 @@
         <v>146</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3578,7 +3578,7 @@
         <v>145</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>20</v>
@@ -3587,7 +3587,7 @@
         <v>146</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3601,16 +3601,16 @@
         <v>145</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3624,7 +3624,7 @@
         <v>145</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3633,10 +3633,10 @@
         <v>146</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>35</v>
@@ -3647,7 +3647,7 @@
         <v>145</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3656,10 +3656,10 @@
         <v>146</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>35</v>
@@ -3670,7 +3670,7 @@
         <v>145</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3679,10 +3679,10 @@
         <v>146</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>35</v>
@@ -3693,7 +3693,7 @@
         <v>145</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3702,7 +3702,7 @@
         <v>146</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>23</v>
@@ -3716,19 +3716,19 @@
         <v>145</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>35</v>
@@ -3739,7 +3739,7 @@
         <v>145</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>20</v>
@@ -3748,7 +3748,7 @@
         <v>146</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3762,19 +3762,19 @@
         <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>35</v>
@@ -3785,7 +3785,7 @@
         <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3794,7 +3794,7 @@
         <v>146</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>23</v>
@@ -3808,7 +3808,7 @@
         <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3817,10 +3817,10 @@
         <v>146</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>35</v>
@@ -3831,7 +3831,7 @@
         <v>145</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3840,10 +3840,10 @@
         <v>146</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>35</v>
@@ -3854,7 +3854,7 @@
         <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3863,10 +3863,10 @@
         <v>146</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>35</v>
@@ -3877,7 +3877,7 @@
         <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3886,10 +3886,10 @@
         <v>146</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>35</v>
@@ -3900,7 +3900,7 @@
         <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3909,10 +3909,10 @@
         <v>146</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>35</v>
@@ -3923,7 +3923,7 @@
         <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3932,10 +3932,10 @@
         <v>146</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>35</v>
@@ -3946,7 +3946,7 @@
         <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -3955,7 +3955,7 @@
         <v>146</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>23</v>
@@ -3969,19 +3969,19 @@
         <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>35</v>
@@ -3992,7 +3992,7 @@
         <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>20</v>
@@ -4001,7 +4001,7 @@
         <v>146</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -4015,7 +4015,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>20</v>
@@ -4024,7 +4024,7 @@
         <v>146</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4038,16 +4038,16 @@
         <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4061,7 +4061,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4070,10 +4070,10 @@
         <v>146</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>35</v>
@@ -4084,7 +4084,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4093,10 +4093,10 @@
         <v>146</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>35</v>
@@ -4107,7 +4107,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4116,10 +4116,10 @@
         <v>146</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>35</v>
@@ -4130,7 +4130,7 @@
         <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4139,7 +4139,7 @@
         <v>146</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>23</v>
@@ -4150,22 +4150,22 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>35</v>
@@ -4176,16 +4176,16 @@
         <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4199,16 +4199,16 @@
         <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4222,7 +4222,7 @@
         <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4231,7 +4231,7 @@
         <v>66</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4245,16 +4245,16 @@
         <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4268,16 +4268,16 @@
         <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4291,7 +4291,7 @@
         <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>20</v>
@@ -4300,7 +4300,7 @@
         <v>148</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4314,16 +4314,16 @@
         <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4337,7 +4337,7 @@
         <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>20</v>
@@ -4346,7 +4346,7 @@
         <v>66</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4360,16 +4360,16 @@
         <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4383,7 +4383,7 @@
         <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>20</v>
@@ -4392,7 +4392,7 @@
         <v>148</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4406,16 +4406,16 @@
         <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4429,7 +4429,7 @@
         <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4438,7 +4438,7 @@
         <v>148</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4452,7 +4452,7 @@
         <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4461,7 +4461,7 @@
         <v>148</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4475,7 +4475,7 @@
         <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4484,7 +4484,7 @@
         <v>148</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4498,16 +4498,16 @@
         <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4521,16 +4521,16 @@
         <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4544,7 +4544,7 @@
         <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4553,7 +4553,7 @@
         <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4576,7 +4576,7 @@
         <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4590,7 +4590,7 @@
         <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4599,7 +4599,7 @@
         <v>148</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4613,16 +4613,16 @@
         <v>147</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4636,7 +4636,7 @@
         <v>147</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4645,7 +4645,7 @@
         <v>66</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4656,19 +4656,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4682,16 +4682,16 @@
         <v>165</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4705,16 +4705,16 @@
         <v>165</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4728,7 +4728,7 @@
         <v>165</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>20</v>
@@ -4737,7 +4737,7 @@
         <v>170</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4751,7 +4751,7 @@
         <v>165</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>20</v>
@@ -4760,7 +4760,7 @@
         <v>170</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4774,7 +4774,7 @@
         <v>165</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>20</v>
@@ -4783,7 +4783,7 @@
         <v>170</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4797,7 +4797,7 @@
         <v>165</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>20</v>
@@ -4806,7 +4806,7 @@
         <v>170</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4820,7 +4820,7 @@
         <v>165</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>20</v>
@@ -4829,7 +4829,7 @@
         <v>170</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4843,7 +4843,7 @@
         <v>165</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>20</v>
@@ -4852,7 +4852,7 @@
         <v>170</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4866,7 +4866,7 @@
         <v>165</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>20</v>
@@ -4875,7 +4875,7 @@
         <v>170</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4889,19 +4889,19 @@
         <v>165</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>35</v>
@@ -4912,7 +4912,7 @@
         <v>165</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -4921,7 +4921,7 @@
         <v>170</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>188</v>
@@ -4935,19 +4935,19 @@
         <v>165</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>35</v>
@@ -4955,25 +4955,25 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186">
@@ -4981,19 +4981,19 @@
         <v>193</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>194</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>196</v>
@@ -5004,16 +5004,16 @@
         <v>193</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>194</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5027,16 +5027,16 @@
         <v>193</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>194</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5050,7 +5050,7 @@
         <v>193</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>20</v>
@@ -5059,7 +5059,7 @@
         <v>194</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5073,7 +5073,7 @@
         <v>193</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>20</v>
@@ -5082,7 +5082,7 @@
         <v>194</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5096,7 +5096,7 @@
         <v>193</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>20</v>
@@ -5105,7 +5105,7 @@
         <v>194</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5119,16 +5119,16 @@
         <v>193</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>194</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5142,7 +5142,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5151,10 +5151,10 @@
         <v>194</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>196</v>
@@ -5165,7 +5165,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5174,10 +5174,10 @@
         <v>194</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>196</v>
@@ -5188,7 +5188,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5197,10 +5197,10 @@
         <v>194</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>196</v>
@@ -5211,7 +5211,7 @@
         <v>193</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5220,7 +5220,7 @@
         <v>194</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>195</v>
@@ -5234,19 +5234,19 @@
         <v>193</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>194</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>196</v>
@@ -5257,7 +5257,7 @@
         <v>193</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>20</v>
@@ -5266,7 +5266,7 @@
         <v>194</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5280,19 +5280,19 @@
         <v>193</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>194</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>196</v>
@@ -5303,7 +5303,7 @@
         <v>193</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5312,7 +5312,7 @@
         <v>194</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>195</v>
@@ -5326,7 +5326,7 @@
         <v>193</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5335,10 +5335,10 @@
         <v>194</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>196</v>
@@ -5349,7 +5349,7 @@
         <v>193</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5358,10 +5358,10 @@
         <v>194</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>196</v>
@@ -5372,7 +5372,7 @@
         <v>193</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5381,10 +5381,10 @@
         <v>194</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>196</v>
@@ -5395,7 +5395,7 @@
         <v>193</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5404,10 +5404,10 @@
         <v>194</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>196</v>
@@ -5418,7 +5418,7 @@
         <v>193</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5427,10 +5427,10 @@
         <v>194</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>196</v>
@@ -5441,7 +5441,7 @@
         <v>193</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5450,10 +5450,10 @@
         <v>194</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>196</v>
@@ -5464,7 +5464,7 @@
         <v>193</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5473,7 +5473,7 @@
         <v>194</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>195</v>
@@ -5487,19 +5487,19 @@
         <v>193</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>194</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
         <v>196</v>
@@ -5510,7 +5510,7 @@
         <v>193</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>20</v>
@@ -5519,7 +5519,7 @@
         <v>194</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5533,7 +5533,7 @@
         <v>193</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>20</v>
@@ -5542,7 +5542,7 @@
         <v>194</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5553,25 +5553,25 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
     </row>
     <row r="212">
@@ -5579,19 +5579,19 @@
         <v>197</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>35</v>
@@ -5602,19 +5602,19 @@
         <v>197</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>35</v>
@@ -5625,16 +5625,16 @@
         <v>197</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -5648,16 +5648,16 @@
         <v>197</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -5671,44 +5671,21 @@
         <v>197</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="214">
   <si>
     <t>Sezione</t>
   </si>
@@ -585,6 +585,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -706,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4938,7 +4944,7 @@
         <v>191</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>170</v>
@@ -4947,7 +4953,7 @@
         <v>192</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>35</v>
@@ -4955,643 +4961,643 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F185" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>202</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>35</v>
@@ -5599,22 +5605,22 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>204</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>35</v>
@@ -5622,7 +5628,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>205</v>
@@ -5631,7 +5637,7 @@
         <v>20</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>206</v>
@@ -5645,7 +5651,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>207</v>
@@ -5654,10 +5660,10 @@
         <v>20</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -5668,16 +5674,16 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>211</v>
@@ -5686,6 +5692,29 @@
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -5266,7 +5266,7 @@
         <v>101</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>196</v>
@@ -5289,7 +5289,7 @@
         <v>103</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>196</v>
@@ -5298,7 +5298,7 @@
         <v>104</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>198</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_064.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="218">
   <si>
     <t>Sezione</t>
   </si>
@@ -270,6 +270,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -712,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1813,7 +1825,7 @@
         <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1822,7 +1834,7 @@
         <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1836,7 +1848,7 @@
         <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -1845,7 +1857,7 @@
         <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1859,7 +1871,7 @@
         <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -2155,65 +2167,65 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2224,19 +2236,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2259,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2270,19 +2282,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2293,19 +2305,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2328,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2351,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2374,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2385,19 +2397,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2408,19 +2420,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2431,19 +2443,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2454,19 +2466,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2477,19 +2489,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2500,19 +2512,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2523,19 +2535,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2546,19 +2558,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2569,19 +2581,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2592,19 +2604,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2615,19 +2627,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2638,19 +2650,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2661,19 +2673,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2684,19 +2696,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2707,19 +2719,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2730,114 +2742,114 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>35</v>
@@ -2845,19 +2857,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2868,19 +2880,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2891,19 +2903,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2914,22 +2926,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>35</v>
@@ -2937,22 +2949,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2960,22 +2972,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>35</v>
@@ -2983,22 +2995,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -3006,19 +3018,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3029,19 +3041,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3052,19 +3064,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>21</v>
@@ -3075,22 +3087,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>35</v>
@@ -3098,22 +3110,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>35</v>
@@ -3121,19 +3133,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>21</v>
@@ -3144,19 +3156,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3167,22 +3179,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>35</v>
@@ -3190,22 +3202,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>35</v>
@@ -3213,19 +3225,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>21</v>
@@ -3236,22 +3248,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>35</v>
@@ -3259,22 +3271,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>35</v>
@@ -3282,19 +3294,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3305,22 +3317,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>35</v>
@@ -3328,19 +3340,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3351,19 +3363,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>21</v>
@@ -3374,22 +3386,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>35</v>
@@ -3397,22 +3409,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>35</v>
@@ -3420,22 +3432,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>35</v>
@@ -3443,22 +3455,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>35</v>
@@ -3466,19 +3478,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3489,22 +3501,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>35</v>
@@ -3512,19 +3524,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3535,22 +3547,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>35</v>
@@ -3558,22 +3570,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>35</v>
@@ -3581,22 +3593,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>35</v>
@@ -3604,19 +3616,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3627,22 +3639,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>35</v>
@@ -3650,19 +3662,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3673,22 +3685,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>35</v>
@@ -3696,19 +3708,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>23</v>
@@ -3719,19 +3731,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3742,19 +3754,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3765,22 +3777,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>35</v>
@@ -3788,22 +3800,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>35</v>
@@ -3811,22 +3823,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>35</v>
@@ -3834,22 +3846,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>35</v>
@@ -3857,22 +3869,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>35</v>
@@ -3880,19 +3892,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>23</v>
@@ -3903,19 +3915,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3926,22 +3938,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>35</v>
@@ -3949,19 +3961,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>23</v>
@@ -3972,22 +3984,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>35</v>
@@ -3995,19 +4007,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -4018,22 +4030,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>35</v>
@@ -4041,19 +4053,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4064,19 +4076,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>23</v>
@@ -4087,19 +4099,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4110,19 +4122,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>23</v>
@@ -4133,19 +4145,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>23</v>
@@ -4156,19 +4168,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4179,19 +4191,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4202,19 +4214,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4225,19 +4237,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4248,22 +4260,22 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>35</v>
@@ -4271,19 +4283,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4294,22 +4306,22 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>35</v>
@@ -4317,22 +4329,22 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>35</v>
@@ -4340,19 +4352,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4363,19 +4375,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4386,19 +4398,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4409,19 +4421,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4432,19 +4444,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4455,19 +4467,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4478,19 +4490,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4501,10 +4513,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>20</v>
@@ -4513,7 +4525,7 @@
         <v>66</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4524,19 +4536,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4547,19 +4559,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4570,19 +4582,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4593,19 +4605,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4616,19 +4628,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4639,19 +4651,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4662,19 +4674,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4685,19 +4697,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4708,19 +4720,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4731,19 +4743,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4754,19 +4766,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4777,19 +4789,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4800,19 +4812,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="C178" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4823,19 +4835,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4846,19 +4858,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4869,19 +4881,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4892,22 +4904,22 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>35</v>
@@ -4915,22 +4927,22 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>35</v>
@@ -4938,22 +4950,22 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>35</v>
@@ -4961,19 +4973,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4984,600 +4996,600 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C192" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="212">
@@ -5585,22 +5597,22 @@
         <v>199</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E212" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="213">
@@ -5608,22 +5620,22 @@
         <v>199</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F213" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G213" s="2" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
     </row>
     <row r="214">
@@ -5631,22 +5643,22 @@
         <v>199</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
     </row>
     <row r="215">
@@ -5654,22 +5666,22 @@
         <v>199</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
     </row>
     <row r="216">
@@ -5677,22 +5689,22 @@
         <v>199</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
     </row>
     <row r="217">
@@ -5700,21 +5712,251 @@
         <v>199</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E217" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
+      <c r="E227" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>35</v>
       </c>
     </row>
